--- a/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
